--- a/framework_results.xlsx
+++ b/framework_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis_Master\Thesis_writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meshra.PC\Documents\Publications\2025 NDSS 26\FEVA-ICS-Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B7D9E-3BE6-4FD4-8236-D3424AC3E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892E7931-53A8-44D5-9736-445EA6C9DA62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -110,9 +99,6 @@
     <t>SVM [10]</t>
   </si>
   <si>
-    <t>NIDS Performance</t>
-  </si>
-  <si>
     <t>Obtained Window Size</t>
   </si>
   <si>
@@ -314,55 +300,58 @@
     <t>Protected Columns</t>
   </si>
   <si>
-    <t>NIDS (#)</t>
-  </si>
-  <si>
-    <t>NIDS 1</t>
-  </si>
-  <si>
-    <t>NIDS 2</t>
-  </si>
-  <si>
-    <t>NIDS 3</t>
-  </si>
-  <si>
-    <t>NIDS 4</t>
-  </si>
-  <si>
-    <t>NIDS 5</t>
-  </si>
-  <si>
-    <t>NIDS 6</t>
-  </si>
-  <si>
-    <t>NIDS 7</t>
-  </si>
-  <si>
-    <t>NIDS 8</t>
-  </si>
-  <si>
-    <t>NIDS 9</t>
-  </si>
-  <si>
-    <t>NIDS 10</t>
-  </si>
-  <si>
-    <t>NIDS 11</t>
-  </si>
-  <si>
-    <t>NIDS 12</t>
-  </si>
-  <si>
-    <t>NIDS 13</t>
-  </si>
-  <si>
-    <t>NIDS 14</t>
-  </si>
-  <si>
     <t>FGSM - L0</t>
   </si>
   <si>
     <t>ASR</t>
+  </si>
+  <si>
+    <t>IDS (#)</t>
+  </si>
+  <si>
+    <t>IDS 1</t>
+  </si>
+  <si>
+    <t>IDS 2</t>
+  </si>
+  <si>
+    <t>IDS 4</t>
+  </si>
+  <si>
+    <t>IDS 5</t>
+  </si>
+  <si>
+    <t>IDS 6</t>
+  </si>
+  <si>
+    <t>IDS 7</t>
+  </si>
+  <si>
+    <t>IDS 8</t>
+  </si>
+  <si>
+    <t>IDS 9</t>
+  </si>
+  <si>
+    <t>IDS 10</t>
+  </si>
+  <si>
+    <t>IDS 11</t>
+  </si>
+  <si>
+    <t>IDS 12</t>
+  </si>
+  <si>
+    <t>IDS 13</t>
+  </si>
+  <si>
+    <t>IDS 14</t>
+  </si>
+  <si>
+    <t>IDS Performance</t>
+  </si>
+  <si>
+    <t>IDS 3</t>
   </si>
 </sst>
 </file>
@@ -711,52 +700,51 @@
   <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="14" max="15" width="13.6328125" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" customWidth="1"/>
-    <col min="22" max="22" width="15.36328125" customWidth="1"/>
-    <col min="23" max="23" width="15.54296875" customWidth="1"/>
-    <col min="24" max="25" width="14.1796875" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" customWidth="1"/>
-    <col min="27" max="27" width="15.54296875" customWidth="1"/>
-    <col min="28" max="29" width="12.453125" customWidth="1"/>
-    <col min="30" max="30" width="16.08984375" customWidth="1"/>
-    <col min="31" max="32" width="12.6328125" customWidth="1"/>
-    <col min="33" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="34" width="15.1796875" customWidth="1"/>
-    <col min="35" max="35" width="15.08984375" customWidth="1"/>
-    <col min="36" max="37" width="13.08984375" customWidth="1"/>
-    <col min="38" max="38" width="14.81640625" customWidth="1"/>
-    <col min="39" max="39" width="15.36328125" customWidth="1"/>
-    <col min="40" max="41" width="13.08984375" customWidth="1"/>
-    <col min="42" max="42" width="15.08984375" customWidth="1"/>
-    <col min="43" max="43" width="15.36328125" customWidth="1"/>
-    <col min="44" max="45" width="12.90625" customWidth="1"/>
-    <col min="46" max="46" width="16.08984375" customWidth="1"/>
-    <col min="47" max="47" width="15.08984375" customWidth="1"/>
-    <col min="48" max="49" width="13.6328125" customWidth="1"/>
-    <col min="50" max="50" width="20.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="14" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="24" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="29" width="12.42578125" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" customWidth="1"/>
+    <col min="31" max="32" width="12.5703125" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" customWidth="1"/>
+    <col min="34" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="37" width="13.140625" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" customWidth="1"/>
+    <col min="40" max="41" width="13.140625" customWidth="1"/>
+    <col min="42" max="42" width="15.140625" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="44" max="45" width="12.85546875" customWidth="1"/>
+    <col min="46" max="46" width="16.140625" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" customWidth="1"/>
+    <col min="48" max="49" width="13.5703125" customWidth="1"/>
+    <col min="50" max="50" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -767,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -802,7 +790,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
@@ -832,7 +820,7 @@
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
       <c r="AT1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU1" s="4"/>
       <c r="AV1" s="4"/>
@@ -841,9 +829,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -905,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
@@ -917,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>8</v>
@@ -929,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>8</v>
@@ -941,7 +929,7 @@
         <v>10</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>8</v>
@@ -953,7 +941,7 @@
         <v>10</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>8</v>
@@ -965,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>8</v>
@@ -977,13 +965,13 @@
         <v>10</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>21</v>
@@ -1116,9 +1104,9 @@
         <v>2710.42</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>22</v>
@@ -1251,12 +1239,12 @@
         <v>214837.39</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1386,12 +1374,12 @@
         <v>1771.69</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1521,12 +1509,12 @@
         <v>7311.27</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1680,18 +1668,18 @@
         <v>3848.59</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1815,15 +1803,15 @@
         <v>177659.82</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1974,15 +1962,15 @@
         <v>33.89</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -2133,18 +2121,18 @@
         <v>145.97999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2292,18 +2280,18 @@
         <v>819.34</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2427,18 +2415,18 @@
         <v>13785.97</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -2562,18 +2550,18 @@
         <v>36520.69</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2697,12 +2685,12 @@
         <v>38154.47</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -2832,15 +2820,15 @@
         <v>1571.46</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -2991,7 +2979,7 @@
         <v>35.17</v>
       </c>
     </row>
-    <row r="20" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2999,44 +2987,49 @@
       <c r="G20" s="1"/>
       <c r="AU20" s="2"/>
     </row>
-    <row r="21" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="23" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="27" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="31" spans="3:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:47" x14ac:dyDescent="0.25">
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="AX1:AX2"/>
     <mergeCell ref="AT1:AW1"/>
@@ -3049,11 +3042,6 @@
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3068,7 +3056,7 @@
       <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3082,159 +3070,159 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>51</v>
@@ -3243,9 +3231,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>60</v>
@@ -3254,31 +3242,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>79</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -3287,9 +3275,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <v>25</v>
@@ -3298,64 +3286,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3371,31 +3359,31 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.81640625" customWidth="1"/>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
